--- a/test_speeches/predictions/Speech_4_AI.xlsx
+++ b/test_speeches/predictions/Speech_4_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,217 +436,230 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>My fellow citizens: Our plan-et is at a crossroads, facing environmental challenges that demand immediate action.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For too long, our modern so-ciety has taken advantage of nature and treated it im-properly, leading to disrup-tion in our praiseworthy envi-ronment and communities.</t>
+          <t>My fellow citizens: Our plan-et is at a crossroads, facing environmental challenges that demand immediate action.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>We're spewing 162 million tons of human-caused global warming pollution into our atmosphere every single day, as if it is an open sewer.</t>
+          <t>For too long, our modern so-ciety has taken advantage of nature and treated it im-properly, leading to disrup-tion in our praiseworthy envi-ronment and communities.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>It's not an open sewer; it is our precious atmosphere.</t>
+          <t>We're spewing 162 million tons of human-caused global warming pollution into our atmosphere every single day, as if it is an open sewer.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What is the consequence?</t>
+          <t>It's not an open sewer; it is our precious atmosphere.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,106 +668,115 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Climate change is one of the biggest challenges for our world today, impacting our ecosystems, species, and fu-ture generations.</t>
+          <t>What is the consequence?</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Our planet is not becoming only a couple of degrees warmer, our house is on fire – and we must act quickly to save it.</t>
+          <t>Climate change is one of the biggest challenges for our world today, impacting our ecosystems, species, and fu-ture generations.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Living in a righteous and ideal world is possible, but not un-less we take action to address climate change.</t>
+          <t>Our planet is not becoming only a couple of degrees warmer, our house is on fire – and we must act quickly to save it.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -763,38 +785,41 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.22</v>
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>What can we do?</t>
+          <t>Living in a righteous and ideal world is possible, but not un-less we take action to address climate change.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -803,106 +828,115 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>We must act on our shared values, the glue of our socie-ty.</t>
+          <t>What can we do?</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>They demand that we take responsibility for our actions and the consequences they bear.</t>
+          <t>We must act on our shared values, the glue of our socie-ty.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>We must act now.</t>
+          <t>They demand that we take responsibility for our actions and the consequences they bear.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -911,35 +945,38 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>We can do this together – help reduce emissions, cor-rect past mistakes, and better the world.</t>
+          <t>We must act now.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -948,58 +985,104 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.78</v>
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>We can do this together – help reduce emissions, cor-rect past mistakes, and better the world.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Join me in supporting our crucial mission to address the severe consequences of cli-mate change on our planet.</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Speech_4_AI.xlsx
+++ b/test_speeches/predictions/Speech_4_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
